--- a/data/trans_dic/CAGE_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/CAGE_R-Dificultad-trans_dic.xlsx
@@ -708,38 +708,38 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.006176962977032109</v>
+        <v>0.006207044890554497</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01649499039568829</v>
+        <v>0.01607148388060501</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01424938776728826</v>
+        <v>0.0139333345025954</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02461553193858981</v>
+        <v>0.02433346071997965</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="n">
-        <v>0</v>
+        <v>0.0007981067516649262</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.005691751677012235</v>
+        <v>0.00587855105513163</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.003712470719426785</v>
+        <v>0.003307682019668252</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.007824757019413209</v>
+        <v>0.008251180742585405</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.007558162574323491</v>
+        <v>0.007659348492226337</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02177343613400951</v>
+        <v>0.02129878814053682</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02310027338912847</v>
+        <v>0.02531850993545397</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03649161047151553</v>
+        <v>0.03686645655103402</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03310426190188454</v>
+        <v>0.03353227172463813</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08048202130450205</v>
+        <v>0.07749987292990074</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.00992114555322283</v>
+        <v>0.008915480077638064</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.006717334463382197</v>
+        <v>0.007233642007301263</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04766704623424578</v>
+        <v>0.05115729226687781</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01215839632068069</v>
+        <v>0.01203026656690238</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01778533715854374</v>
+        <v>0.01787970926185115</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01753237967806179</v>
+        <v>0.01682454323493784</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05955456926208644</v>
+        <v>0.05858686814879717</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002794851232768523</v>
+        <v>0.002776290916813912</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01044393155263189</v>
+        <v>0.01038031316290846</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002203122753244327</v>
+        <v>0.002224899948942394</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.008280290550416288</v>
+        <v>0.008024984432765669</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0009290294779745925</v>
+        <v>0.0009253767273510534</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.001854479213614201</v>
+        <v>0.002033610109387171</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.002380801419248195</v>
+        <v>0.002532237184720191</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.002536629255305344</v>
+        <v>0.002669986914137678</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.005378757385077088</v>
+        <v>0.005393425538776584</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.002925763912915608</v>
+        <v>0.003008980508628679</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.008127625595854501</v>
+        <v>0.007507243590647588</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01345402092532081</v>
+        <v>0.01459707576873883</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03050326790159885</v>
+        <v>0.03033520930880525</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01323880676890673</v>
+        <v>0.0149930037770349</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03660369495814911</v>
+        <v>0.03434907314084284</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.009691804600568678</v>
+        <v>0.01019816546083883</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.004558573695752441</v>
+        <v>0.005136230406606536</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01179371285430767</v>
+        <v>0.01254864002904701</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02721139728862247</v>
+        <v>0.02655772679166211</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.009378694313128428</v>
+        <v>0.00956196597374339</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01499614880378386</v>
+        <v>0.01546056127548679</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0102621276740702</v>
+        <v>0.00989187383215169</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02854261582508669</v>
+        <v>0.02696778409895446</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002661040631688805</v>
+        <v>0.002728150389667373</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.007689445769124937</v>
+        <v>0.008094635895493415</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0038187488423516</v>
+        <v>0.003736709573649816</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01006773625902437</v>
+        <v>0.01065608079282423</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.001144173331861403</v>
+        <v>0.001141231980841628</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.001225508739690237</v>
+        <v>0.00121242552509047</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.006767736954342446</v>
+        <v>0.005469013335838707</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001848557995154853</v>
+        <v>0.001878854163108473</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.005609620398528776</v>
+        <v>0.005698348236328187</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.003291996106109939</v>
+        <v>0.003806410437641384</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01103882742638247</v>
+        <v>0.01087023320597901</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01406918251956249</v>
+        <v>0.0135520959034902</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02614283635554169</v>
+        <v>0.02581744195611485</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01894175713472186</v>
+        <v>0.01823745593605688</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04048331687037621</v>
+        <v>0.0411574278530227</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.005636173551999758</v>
+        <v>0.005113863744833209</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01150302003604873</v>
+        <v>0.01062720995036497</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01494363473216917</v>
+        <v>0.01453826569992817</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0575106519628396</v>
+        <v>0.04877706095450009</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.008467721861562576</v>
+        <v>0.008212652123362635</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01538385979731005</v>
+        <v>0.01616224222149084</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01191756825834839</v>
+        <v>0.01353936556420389</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03450643299061036</v>
+        <v>0.03662104474934576</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.008129007534261767</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.02482943261969958</v>
+        <v>0.02482943261969957</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.003226111126315923</v>
@@ -1115,35 +1115,35 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.008764960959056777</v>
+        <v>0.008009653365556065</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01059862407793468</v>
+        <v>0.01210446397834087</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01078632523762292</v>
+        <v>0.01251910360117344</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" s="5" t="n">
-        <v>0.001934786278372441</v>
+        <v>0.002271655115136272</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.008695649728388592</v>
+        <v>0.009275324451726498</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.004300659920816799</v>
+        <v>0.004108178653348659</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.008424186088590401</v>
+        <v>0.009134859050425024</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01406111886022852</v>
+        <v>0.01408437356271303</v>
       </c>
     </row>
     <row r="15">
@@ -1154,38 +1154,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02016917878678268</v>
+        <v>0.01715741429706976</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03519559232663939</v>
+        <v>0.03509441920842819</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04213912729060071</v>
+        <v>0.04022194732919029</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03861931819458532</v>
+        <v>0.03972399022566068</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01202426801800947</v>
+        <v>0.01496093827459132</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.02015770507507251</v>
+        <v>0.02043149522771253</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0613206130302155</v>
+        <v>0.05758265825833192</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01180544401705213</v>
+        <v>0.01187866146195624</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02021031574284507</v>
+        <v>0.01737524575267101</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02599648717242151</v>
+        <v>0.02480949566103008</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03783406795235113</v>
+        <v>0.03795519068993641</v>
       </c>
     </row>
     <row r="16">
@@ -1221,7 +1221,7 @@
         <v>0.004788489271992583</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.01873764023016124</v>
+        <v>0.01873764023016125</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.00493378916400489</v>
@@ -1244,40 +1244,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.004525233638272716</v>
+        <v>0.004920929559949147</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01473030105265255</v>
+        <v>0.01461689329645778</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01071868055403662</v>
+        <v>0.01033344961195285</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01697573745453073</v>
+        <v>0.01721756046764894</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.001036737107082495</v>
+        <v>0.0009875195638885702</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0005631476449803691</v>
+        <v>0.0005618751877816737</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.002872251878022775</v>
+        <v>0.002720363489401351</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01126774467812718</v>
+        <v>0.01114537617684252</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.003288679480744275</v>
+        <v>0.003287400385475285</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.007874584199983249</v>
+        <v>0.007967029106097603</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.007348426805730966</v>
+        <v>0.00717193864578619</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0171320196628175</v>
+        <v>0.01690402381544142</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01109123864070141</v>
+        <v>0.01121562839165945</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02509269344749896</v>
+        <v>0.0248182329050109</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01899617527812636</v>
+        <v>0.01922303989567081</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03310997989210673</v>
+        <v>0.03239233198382738</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.00492016138616814</v>
+        <v>0.004907528380006794</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.00325382931983958</v>
+        <v>0.003494811584905333</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.007876108908421612</v>
+        <v>0.007677681222776177</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0312922300510637</v>
+        <v>0.03114574660752977</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.006858144095527499</v>
+        <v>0.006843831463908627</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01290204236870162</v>
+        <v>0.01315381371640071</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01240758591502164</v>
+        <v>0.01219120696606177</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0293019886652362</v>
+        <v>0.02860647233705596</v>
       </c>
     </row>
     <row r="19">
@@ -1592,38 +1592,38 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3608</v>
+        <v>3626</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17220</v>
+        <v>16778</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16073</v>
+        <v>15717</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5267</v>
+        <v>5207</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>661</v>
+        <v>683</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5593</v>
+        <v>4983</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>16932</v>
+        <v>17854</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>18046</v>
+        <v>18287</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7189</v>
+        <v>7033</v>
       </c>
     </row>
     <row r="7">
@@ -1634,38 +1634,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13494</v>
+        <v>14790</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>38095</v>
+        <v>38486</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>37342</v>
+        <v>37824</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17221</v>
+        <v>16583</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9151</v>
+        <v>8223</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>8461</v>
+        <v>9111</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>5540</v>
+        <v>5945</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>18316</v>
+        <v>18123</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>38485</v>
+        <v>38689</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>41860</v>
+        <v>40170</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>19664</v>
+        <v>19345</v>
       </c>
     </row>
     <row r="8">
@@ -1768,40 +1768,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3013</v>
+        <v>2993</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10204</v>
+        <v>10142</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2002</v>
+        <v>2022</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3760</v>
+        <v>3644</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1866</v>
+        <v>2047</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>569</v>
+        <v>605</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>5417</v>
+        <v>5702</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>11141</v>
+        <v>11172</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>5604</v>
+        <v>5763</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>5632</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="11">
@@ -1812,40 +1812,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14502</v>
+        <v>15734</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>29804</v>
+        <v>29640</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12032</v>
+        <v>13626</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16622</v>
+        <v>15598</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10249</v>
+        <v>10785</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>4988</v>
+        <v>5620</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>11870</v>
+        <v>12630</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>6500</v>
+        <v>6344</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>20028</v>
+        <v>20419</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>31062</v>
+        <v>32024</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>19655</v>
+        <v>18946</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>19780</v>
+        <v>18688</v>
       </c>
     </row>
     <row r="12">
@@ -1948,40 +1948,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2985</v>
+        <v>3060</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6806</v>
+        <v>7165</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3146</v>
+        <v>3078</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5079</v>
+        <v>5375</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1794</v>
+        <v>1450</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3911</v>
+        <v>3975</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>9878</v>
+        <v>10034</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5250</v>
+        <v>6071</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>8495</v>
+        <v>8365</v>
       </c>
     </row>
     <row r="15">
@@ -1992,40 +1992,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15780</v>
+        <v>15200</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23139</v>
+        <v>22851</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15603</v>
+        <v>15023</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>20422</v>
+        <v>20762</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5602</v>
+        <v>5083</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10074</v>
+        <v>9307</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11522</v>
+        <v>11210</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>15245</v>
+        <v>12930</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>17914</v>
+        <v>17374</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>27090</v>
+        <v>28460</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>19006</v>
+        <v>21593</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>26554</v>
+        <v>28181</v>
       </c>
     </row>
     <row r="16">
@@ -2131,35 +2131,35 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4409</v>
+        <v>4029</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5370</v>
+        <v>6133</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5213</v>
+        <v>6051</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="n">
-        <v>947</v>
+        <v>1112</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2333</v>
+        <v>2488</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4110</v>
+        <v>3926</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>8394</v>
+        <v>9102</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>10568</v>
+        <v>10585</v>
       </c>
     </row>
     <row r="19">
@@ -2170,38 +2170,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9020</v>
+        <v>7673</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17704</v>
+        <v>17653</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21352</v>
+        <v>20381</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18665</v>
+        <v>19199</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4102</v>
+        <v>5104</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>9871</v>
+        <v>10005</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>16449</v>
+        <v>15446</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>9307</v>
+        <v>9365</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>19316</v>
+        <v>16607</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>25903</v>
+        <v>24720</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>28434</v>
+        <v>28525</v>
       </c>
     </row>
     <row r="20">
@@ -2304,40 +2304,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14620</v>
+        <v>15899</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>50218</v>
+        <v>49831</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>36093</v>
+        <v>34796</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>28109</v>
+        <v>28510</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3437</v>
+        <v>3274</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>10130</v>
+        <v>9594</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>10010</v>
+        <v>9902</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>21527</v>
+        <v>21519</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>54743</v>
+        <v>55386</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>50661</v>
+        <v>49444</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>43588</v>
+        <v>43008</v>
       </c>
     </row>
     <row r="23">
@@ -2348,40 +2348,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>35834</v>
+        <v>36236</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>85545</v>
+        <v>84609</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>63965</v>
+        <v>64729</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>54825</v>
+        <v>53637</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>16310</v>
+        <v>16268</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>11527</v>
+        <v>12381</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>27777</v>
+        <v>27078</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>27800</v>
+        <v>27670</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>44892</v>
+        <v>44798</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>89693</v>
+        <v>91444</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>85539</v>
+        <v>84047</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>74552</v>
+        <v>72782</v>
       </c>
     </row>
     <row r="24">
